--- a/TheData/Data/PVs for assessments.xlsx
+++ b/TheData/Data/PVs for assessments.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5ee0407a7ea350d/My Research/Dr_Mosaad/Data 3/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e5ee0407a7ea350d/My Research/02_Finished/Dr_Mosaad_PV_Parameters/The Code/TheData/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{E6B42AAE-0881-40D7-8AFB-38C42EF0FA9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6FB7444C-4103-4620-A055-5F53B8101A61}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E6B42AAE-0881-40D7-8AFB-38C42EF0FA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9BCA8E8-4FC8-4891-AA3A-66AA1ED75FFF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="1290" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANN" sheetId="6" r:id="rId1"/>
     <sheet name="Eureqa" sheetId="7" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -246,72 +257,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -629,37 +637,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:J11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="5"/>
-    <col min="3" max="3" width="23.33203125" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="15.77734375" style="5"/>
+    <col min="1" max="1" width="3.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="5"/>
+    <col min="3" max="3" width="23.28515625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="15.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D2" s="18" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
@@ -697,8 +705,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -731,8 +739,8 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="17"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
@@ -763,8 +771,8 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -797,8 +805,8 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
@@ -829,8 +837,8 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -863,8 +871,8 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
@@ -895,8 +903,8 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
@@ -927,8 +935,8 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
@@ -976,37 +984,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="5"/>
-    <col min="3" max="3" width="23.33203125" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="15.77734375" style="5"/>
+    <col min="1" max="1" width="3.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="5"/>
+    <col min="3" max="3" width="23.28515625" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="15.7109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="D2" s="18" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
@@ -1044,8 +1052,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -1078,7 +1086,7 @@
       <c r="L4" s="9">
         <v>3.8227741198529102</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>2.45378094702977E-10</v>
       </c>
       <c r="N4" s="9">
@@ -1088,8 +1096,8 @@
         <v>0.97370635447887</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B5" s="20"/>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="19"/>
       <c r="C5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1120,7 +1128,7 @@
       <c r="L5" s="9">
         <v>4.8170632633901</v>
       </c>
-      <c r="M5" s="10">
+      <c r="M5" s="9">
         <v>2.2282800070166901E-10</v>
       </c>
       <c r="N5" s="9">
@@ -1130,8 +1138,8 @@
         <v>0.98787285016254001</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="21" t="s">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1164,7 +1172,7 @@
       <c r="L6" s="9">
         <v>8.2310091970309607</v>
       </c>
-      <c r="M6" s="10">
+      <c r="M6" s="9">
         <v>4.2852849148968199E-10</v>
       </c>
       <c r="N6" s="9">
@@ -1174,8 +1182,8 @@
         <v>1.0028649199252</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="21"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
@@ -1206,7 +1214,7 @@
       <c r="L7" s="9">
         <v>3.4770050424607599</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="9">
         <v>7.9446068717993896E-11</v>
       </c>
       <c r="N7" s="9">
@@ -1216,8 +1224,8 @@
         <v>0.95964145217836905</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B8" s="22" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -1250,7 +1258,7 @@
       <c r="L8" s="9">
         <v>2.3363114420666098</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="9">
         <v>6.4370436999099297E-11</v>
       </c>
       <c r="N8" s="9">
@@ -1260,8 +1268,8 @@
         <v>0.95219842324505299</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B9" s="22"/>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
       <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +1300,7 @@
       <c r="L9" s="9">
         <v>3.13095048866214</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="9">
         <v>9.7216462282334606E-11</v>
       </c>
       <c r="N9" s="9">
@@ -1302,8 +1310,8 @@
         <v>0.97215558718958495</v>
       </c>
     </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B10" s="22"/>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
       <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
@@ -1334,7 +1342,7 @@
       <c r="L10" s="9">
         <v>4.8170632633901</v>
       </c>
-      <c r="M10" s="10">
+      <c r="M10" s="9">
         <v>1.10925301740756E-10</v>
       </c>
       <c r="N10" s="9">
@@ -1344,8 +1352,8 @@
         <v>0.95958750900007705</v>
       </c>
     </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
@@ -1376,7 +1384,7 @@
       <c r="L11" s="9">
         <v>4.7208458049745401</v>
       </c>
-      <c r="M11" s="10">
+      <c r="M11" s="9">
         <v>1.2862424605389901E-10</v>
       </c>
       <c r="N11" s="9">
@@ -1403,13 +1411,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C07DBE-43CF-46CD-89CA-CC255FA0E6DE}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.6625000000000001</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>6.5000000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.0777777777777802</v>
       </c>
@@ -1478,7 +1486,7 @@
         <v>2.9166666666666698E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.7063518518518501</v>
       </c>
@@ -1501,7 +1509,7 @@
         <v>3.8733252131546901E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5225</v>
       </c>
@@ -1524,7 +1532,7 @@
         <v>4.0579710144927499E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.99916666666666698</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>4.3478260869565202E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1.3316666666666701</v>
       </c>
@@ -1570,7 +1578,7 @@
         <v>3.2258064516128997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.0777777777777802</v>
       </c>
@@ -1593,7 +1601,7 @@
         <v>4.1666666666666699E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.9479166666666701</v>
       </c>
